--- a/average-income-41-58/average-income-41-58-by-provinces.xlsx
+++ b/average-income-41-58/average-income-41-58-by-provinces.xlsx
@@ -13,14 +13,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="178">
   <si>
     <t xml:space="preserve">จังหวัด</t>
   </si>
@@ -28,6 +28,12 @@
     <t xml:space="preserve">Province</t>
   </si>
   <si>
+    <t xml:space="preserve">ภาค</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region</t>
+  </si>
+  <si>
     <t xml:space="preserve">year-2541-1998</t>
   </si>
   <si>
@@ -64,6 +70,12 @@
     <t xml:space="preserve">Bangkok</t>
   </si>
   <si>
+    <t xml:space="preserve">ตอนพิเศษ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater Bangkok</t>
+  </si>
+  <si>
     <t xml:space="preserve">สมุทรปราการ</t>
   </si>
   <si>
@@ -88,6 +100,12 @@
     <t xml:space="preserve">Phra Nakhon Si Ayutthaya</t>
   </si>
   <si>
+    <t xml:space="preserve">ภาคกลาง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Region</t>
+  </si>
+  <si>
     <t xml:space="preserve">อ่างทอง</t>
   </si>
   <si>
@@ -220,6 +238,12 @@
     <t xml:space="preserve">Chiang Mai</t>
   </si>
   <si>
+    <t xml:space="preserve">ภาคเหนือ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Region</t>
+  </si>
+  <si>
     <t xml:space="preserve">ลำพูน</t>
   </si>
   <si>
@@ -322,6 +346,12 @@
     <t xml:space="preserve">Nakhon Ratchasima</t>
   </si>
   <si>
+    <t xml:space="preserve">ภาคตะวันออกเฉียงเหนือ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northeastern Region</t>
+  </si>
+  <si>
     <t xml:space="preserve">บุรีรัมย์</t>
   </si>
   <si>
@@ -440,6 +470,12 @@
   </si>
   <si>
     <t xml:space="preserve">Nakhon Si Thammarat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ภาคใต้</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern Region</t>
   </si>
   <si>
     <t xml:space="preserve">กระบี่</t>
@@ -527,7 +563,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -550,19 +586,110 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Waree"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Waree"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Waree"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Waree"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Waree"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Waree"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Waree"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Waree"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Waree"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -570,8 +697,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -595,29 +737,119 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -626,10 +858,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -644,10 +876,10 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
@@ -674,2916 +906,3384 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>26054</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="F2" s="0" t="n">
         <v>26909</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="G2" s="0" t="n">
         <v>29589</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="H2" s="0" t="n">
         <v>29843</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>36658</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="J2" s="0" t="n">
         <v>39020</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>42380</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>48951</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>49190.8</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="N2" s="0" t="n">
         <v>45571.7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>18100</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>15745</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>19680</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>19946</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>20382</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>21302</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>23359</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>23797.9</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>29575.3</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>25457.2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>24211</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>24566</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>29119</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>26658</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>31152</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>32743</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>34626</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>35119.7</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>30663.6</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="N4" s="0" t="n">
         <v>36884</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>21793</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>19282</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>22838</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>21530</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>25143</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>26107</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>26686</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>21615.5</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>33461.3</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="N5" s="0" t="n">
         <v>41056.9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="n">
         <v>12918</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>14904</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>13319</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>14980</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>19676</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>21676</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>25820</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>22301.7</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>26481.5</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="N6" s="0" t="n">
         <v>28379.4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <v>10878</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>12544</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>11653</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>12855</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>18300</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>17704</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>25506</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>21139.9</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>28641.3</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="N7" s="0" t="n">
         <v>23350.6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <v>10587</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>10649</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="G8" s="0" t="n">
         <v>11010</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="H8" s="0" t="n">
         <v>15003</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="I8" s="0" t="n">
         <v>19935</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="J8" s="0" t="n">
         <v>16852</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="K8" s="0" t="n">
         <v>22405</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="L8" s="0" t="n">
         <v>17177.7</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <v>23425.5</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="N8" s="0" t="n">
         <v>22955.1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="E9" s="0" t="n">
         <v>10786</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>11894</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="G9" s="0" t="n">
         <v>14434</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <v>14788</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="I9" s="0" t="n">
         <v>18510</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="J9" s="0" t="n">
         <v>20558</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="K9" s="0" t="n">
         <v>25419</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="L9" s="0" t="n">
         <v>26067.7</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="M9" s="0" t="n">
         <v>28115.4</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="N9" s="0" t="n">
         <v>26112.2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="0" t="n">
         <v>11159</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>12693</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>11119</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>13383</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>13058</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="J10" s="0" t="n">
         <v>13995</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="K10" s="0" t="n">
         <v>18719</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>20180.6</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>32753.5</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="N10" s="0" t="n">
         <v>22058.9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="0" t="n">
         <v>13281</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>12319</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>14677</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>18742</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>20468</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="J11" s="0" t="n">
         <v>22363</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>21947</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>27114.1</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>32833.6</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <v>29413.4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="0" t="n">
         <v>14075</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>13807</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="G12" s="0" t="n">
         <v>16797</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>22286</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>21869</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="J12" s="0" t="n">
         <v>22260</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="K12" s="0" t="n">
         <v>24052</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="L12" s="0" t="n">
         <v>23007.2</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>28366.5</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="N12" s="0" t="n">
         <v>27256.7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="n">
         <v>12491</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>14739</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="G13" s="0" t="n">
         <v>13255</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <v>18962</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="I13" s="0" t="n">
         <v>20018</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="J13" s="0" t="n">
         <v>25090</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="K13" s="0" t="n">
         <v>22983</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>21929</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>30400.8</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="N13" s="0" t="n">
         <v>30314.8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="0" t="n">
         <v>15548</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="F14" s="0" t="n">
         <v>11527</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="G14" s="0" t="n">
         <v>15959</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="H14" s="0" t="n">
         <v>15897</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="I14" s="0" t="n">
         <v>20606</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="J14" s="0" t="n">
         <v>18866</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="K14" s="0" t="n">
         <v>19442</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="L14" s="0" t="n">
         <v>24277.6</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>27283.5</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="N14" s="0" t="n">
         <v>36023.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="0" t="n">
         <v>11703</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="F15" s="0" t="n">
         <v>7426</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="G15" s="0" t="n">
         <v>13822</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="H15" s="0" t="n">
         <v>14080</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="I15" s="0" t="n">
         <v>20286</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="J15" s="0" t="n">
         <v>16664</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="K15" s="0" t="n">
         <v>16949</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="L15" s="0" t="n">
         <v>28118.2</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>21652.8</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="N15" s="0" t="n">
         <v>25332.9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="0" t="n">
         <v>14010</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="F16" s="0" t="n">
         <v>13781</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="G16" s="0" t="n">
         <v>14829</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="H16" s="0" t="n">
         <v>16938</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="I16" s="0" t="n">
         <v>16770</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="J16" s="0" t="n">
         <v>20665</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>21252</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>23030.7</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>34548.3</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="N16" s="0" t="n">
         <v>27554.9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="0" t="n">
         <v>9852</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="F17" s="0" t="n">
         <v>10477</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="G17" s="0" t="n">
         <v>12720</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="H17" s="0" t="n">
         <v>15032</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="I17" s="0" t="n">
         <v>16031</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="J17" s="0" t="n">
         <v>18263</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="K17" s="0" t="n">
         <v>22548</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="L17" s="0" t="n">
         <v>25338.1</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>21038.9</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="N17" s="0" t="n">
         <v>24165.6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="0" t="n">
         <v>11809</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="F18" s="0" t="n">
         <v>12595</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="G18" s="0" t="n">
         <v>10722</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="H18" s="0" t="n">
         <v>13096</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="I18" s="0" t="n">
         <v>14104</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="J18" s="0" t="n">
         <v>15983</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>17503</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="L18" s="0" t="n">
         <v>17042.4</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <v>23390.6</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="N18" s="0" t="n">
         <v>23555</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="0" t="n">
         <v>6958</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="F19" s="0" t="n">
         <v>8355</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="G19" s="0" t="n">
         <v>9951</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="H19" s="0" t="n">
         <v>10777</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="I19" s="0" t="n">
         <v>11577</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="J19" s="0" t="n">
         <v>13593</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="K19" s="0" t="n">
         <v>15525</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="L19" s="0" t="n">
         <v>17781.1</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="M19" s="0" t="n">
         <v>24805.2</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="N19" s="0" t="n">
         <v>26953.4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="0" t="n">
         <v>12868</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="F20" s="0" t="n">
         <v>15174</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="G20" s="0" t="n">
         <v>14692</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="H20" s="0" t="n">
         <v>19867</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="I20" s="0" t="n">
         <v>23202</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>17576</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>20994</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="L20" s="0" t="n">
         <v>18713.1</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <v>25741.6</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="N20" s="0" t="n">
         <v>19590</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="0" t="n">
         <v>13082</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="F21" s="0" t="n">
         <v>11680</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="G21" s="0" t="n">
         <v>15380</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="H21" s="0" t="n">
         <v>12122</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="I21" s="0" t="n">
         <v>15606</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="J21" s="0" t="n">
         <v>15326</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>17571</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="L21" s="0" t="n">
         <v>15209.9</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="M21" s="0" t="n">
         <v>18746</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="N21" s="0" t="n">
         <v>18883.8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="0" t="n">
         <v>12409</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="F22" s="0" t="n">
         <v>13334</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="G22" s="0" t="n">
         <v>12984</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="H22" s="0" t="n">
         <v>15781</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="I22" s="0" t="n">
         <v>14783</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="J22" s="0" t="n">
         <v>15112</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="K22" s="0" t="n">
         <v>15797</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>15927.8</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="M22" s="0" t="n">
         <v>17260.3</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="N22" s="0" t="n">
         <v>15786.2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="0" t="n">
         <v>15178</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="F23" s="0" t="n">
         <v>18297</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="G23" s="0" t="n">
         <v>18674</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="H23" s="0" t="n">
         <v>20701</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>33835</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="J23" s="0" t="n">
         <v>25447</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="K23" s="0" t="n">
         <v>24989</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="L23" s="0" t="n">
         <v>22954.8</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="M23" s="0" t="n">
         <v>30855.5</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="N23" s="0" t="n">
         <v>40347</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="0" t="n">
         <v>17565</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="F24" s="0" t="n">
         <v>13775</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="G24" s="0" t="n">
         <v>16437</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="H24" s="0" t="n">
         <v>15347</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="I24" s="0" t="n">
         <v>19555</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="J24" s="0" t="n">
         <v>18735</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="K24" s="0" t="n">
         <v>20978</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="L24" s="0" t="n">
         <v>20850.2</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="M24" s="0" t="n">
         <v>23658.3</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="N24" s="0" t="n">
         <v>29347.4</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="0" t="n">
         <v>11540</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>13072</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="G25" s="0" t="n">
         <v>13876</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="H25" s="0" t="n">
         <v>12528</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="I25" s="0" t="n">
         <v>16923</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="J25" s="0" t="n">
         <v>12634</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="K25" s="0" t="n">
         <v>18363</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="L25" s="0" t="n">
         <v>15068</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="M25" s="0" t="n">
         <v>16256.5</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="N25" s="0" t="n">
         <v>18310.2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="0" t="n">
         <v>14135</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <v>12390</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="G26" s="0" t="n">
         <v>15993</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="H26" s="0" t="n">
         <v>13040</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="I26" s="0" t="n">
         <v>15042</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="J26" s="0" t="n">
         <v>17855</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="K26" s="0" t="n">
         <v>17440</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="L26" s="0" t="n">
         <v>20025.8</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="M26" s="0" t="n">
         <v>21784.3</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="N26" s="0" t="n">
         <v>26430.7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="0" t="n">
         <v>10017</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="F27" s="0" t="n">
         <v>10840</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="G27" s="0" t="n">
         <v>11666</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="H27" s="0" t="n">
         <v>13806</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="I27" s="0" t="n">
         <v>16238</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="J27" s="0" t="n">
         <v>17932</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="K27" s="0" t="n">
         <v>16934</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="L27" s="0" t="n">
         <v>17477</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="M27" s="0" t="n">
         <v>28459.2</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="N27" s="0" t="n">
         <v>23522.6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="0" t="n">
         <v>10349</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>9243</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="G28" s="0" t="n">
         <v>9582</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="H28" s="0" t="n">
         <v>12586</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="I28" s="0" t="n">
         <v>14904</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="J28" s="0" t="n">
         <v>14386</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="K28" s="0" t="n">
         <v>16141</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="L28" s="0" t="n">
         <v>18323.2</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="M28" s="0" t="n">
         <v>14392.7</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="N28" s="0" t="n">
         <v>14950.4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="0" t="n">
         <v>8722</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>10231</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="G29" s="0" t="n">
         <v>11328</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="H29" s="0" t="n">
         <v>11843</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="I29" s="0" t="n">
         <v>14361</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="J29" s="0" t="n">
         <v>14104</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="K29" s="0" t="n">
         <v>20048</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="L29" s="0" t="n">
         <v>18778.4</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="M29" s="0" t="n">
         <v>22504.5</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="N29" s="0" t="n">
         <v>23834.3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="0" t="n">
         <v>14177</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="F30" s="0" t="n">
         <v>9735</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="G30" s="0" t="n">
         <v>9759</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="H30" s="0" t="n">
         <v>10576</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="I30" s="0" t="n">
         <v>15585</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="J30" s="0" t="n">
         <v>13531</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="K30" s="0" t="n">
         <v>14020</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="L30" s="0" t="n">
         <v>18453.6</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="M30" s="0" t="n">
         <v>19262.1</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="N30" s="0" t="n">
         <v>20466.2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="0" t="n">
         <v>10044</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="F31" s="0" t="n">
         <v>7270</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="G31" s="0" t="n">
         <v>8581</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="H31" s="0" t="n">
         <v>10940</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="I31" s="0" t="n">
         <v>14220</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="J31" s="0" t="n">
         <v>15001</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="K31" s="0" t="n">
         <v>15865</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="L31" s="0" t="n">
         <v>17602.2</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="M31" s="0" t="n">
         <v>21344.4</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="N31" s="0" t="n">
         <v>19239.4</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="D32" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="E32" s="0" t="n">
         <v>8522</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="F32" s="0" t="n">
         <v>9366</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="G32" s="0" t="n">
         <v>10048</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="H32" s="0" t="n">
         <v>11333</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="I32" s="0" t="n">
         <v>12591</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="J32" s="0" t="n">
         <v>14045</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="K32" s="0" t="n">
         <v>13034</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="L32" s="0" t="n">
         <v>18157.2</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="M32" s="0" t="n">
         <v>19417.8</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="N32" s="0" t="n">
         <v>21795.5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="0" t="n">
         <v>7387</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="F33" s="0" t="n">
         <v>7334</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="G33" s="0" t="n">
         <v>8130</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="H33" s="0" t="n">
         <v>10751</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="I33" s="0" t="n">
         <v>10590</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="J33" s="0" t="n">
         <v>11407</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="K33" s="0" t="n">
         <v>14624</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="L33" s="0" t="n">
         <v>16249.3</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="M33" s="0" t="n">
         <v>17597.5</v>
       </c>
-      <c r="L33" s="0" t="n">
+      <c r="N33" s="0" t="n">
         <v>17886.2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="0" t="n">
         <v>7491</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="F34" s="0" t="n">
         <v>5928</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="G34" s="0" t="n">
         <v>9520</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="H34" s="0" t="n">
         <v>9643</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="I34" s="0" t="n">
         <v>10352</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="J34" s="0" t="n">
         <v>11348</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="K34" s="0" t="n">
         <v>13189</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="L34" s="0" t="n">
         <v>14456.8</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="M34" s="0" t="n">
         <v>15491.1</v>
       </c>
-      <c r="L34" s="0" t="n">
+      <c r="N34" s="0" t="n">
         <v>17673.1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="0" t="n">
         <v>8924</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="F35" s="0" t="n">
         <v>7930</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="G35" s="0" t="n">
         <v>8369</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="H35" s="0" t="n">
         <v>8920</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="I35" s="0" t="n">
         <v>10495</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="J35" s="0" t="n">
         <v>13736</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="K35" s="0" t="n">
         <v>13278</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="L35" s="0" t="n">
         <v>15033.7</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="M35" s="0" t="n">
         <v>13510.1</v>
       </c>
-      <c r="L35" s="0" t="n">
+      <c r="N35" s="0" t="n">
         <v>13497.2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="0" t="n">
         <v>5934</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="F36" s="0" t="n">
         <v>6317</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="G36" s="0" t="n">
         <v>6696</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="H36" s="0" t="n">
         <v>8676</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="I36" s="0" t="n">
         <v>6544</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="J36" s="0" t="n">
         <v>7245</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="K36" s="0" t="n">
         <v>7936</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="L36" s="0" t="n">
         <v>9024.3</v>
       </c>
-      <c r="K36" s="0" t="n">
+      <c r="M36" s="0" t="n">
         <v>8820.9</v>
       </c>
-      <c r="L36" s="0" t="n">
+      <c r="N36" s="0" t="n">
         <v>15119.4</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="0" t="n">
         <v>9500</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="F37" s="0" t="n">
         <v>7602</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="G37" s="0" t="n">
         <v>9660</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="H37" s="0" t="n">
         <v>10200</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="I37" s="0" t="n">
         <v>14953</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="J37" s="0" t="n">
         <v>15141</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="K37" s="0" t="n">
         <v>17127</v>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="L37" s="0" t="n">
         <v>21560.9</v>
       </c>
-      <c r="K37" s="0" t="n">
+      <c r="M37" s="0" t="n">
         <v>24158.3</v>
       </c>
-      <c r="L37" s="0" t="n">
+      <c r="N37" s="0" t="n">
         <v>21952.3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="0" t="n">
         <v>7887</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="F38" s="0" t="n">
         <v>9598</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="G38" s="0" t="n">
         <v>6519</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="H38" s="0" t="n">
         <v>9817</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="I38" s="0" t="n">
         <v>13258</v>
       </c>
-      <c r="H38" s="0" t="n">
+      <c r="J38" s="0" t="n">
         <v>12036</v>
       </c>
-      <c r="I38" s="0" t="n">
+      <c r="K38" s="0" t="n">
         <v>17425</v>
       </c>
-      <c r="J38" s="0" t="n">
+      <c r="L38" s="0" t="n">
         <v>18487.1</v>
       </c>
-      <c r="K38" s="0" t="n">
+      <c r="M38" s="0" t="n">
         <v>20149.7</v>
       </c>
-      <c r="L38" s="0" t="n">
+      <c r="N38" s="0" t="n">
         <v>20114.5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="0" t="n">
         <v>9769</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="F39" s="0" t="n">
         <v>12354</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="G39" s="0" t="n">
         <v>12583</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="H39" s="0" t="n">
         <v>12776</v>
       </c>
-      <c r="G39" s="0" t="n">
+      <c r="I39" s="0" t="n">
         <v>15337</v>
       </c>
-      <c r="H39" s="0" t="n">
+      <c r="J39" s="0" t="n">
         <v>15559</v>
       </c>
-      <c r="I39" s="0" t="n">
+      <c r="K39" s="0" t="n">
         <v>18115</v>
       </c>
-      <c r="J39" s="0" t="n">
+      <c r="L39" s="0" t="n">
         <v>18671.9</v>
       </c>
-      <c r="K39" s="0" t="n">
+      <c r="M39" s="0" t="n">
         <v>22082.6</v>
       </c>
-      <c r="L39" s="0" t="n">
+      <c r="N39" s="0" t="n">
         <v>20140.2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="0" t="n">
         <v>9423</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="F40" s="0" t="n">
         <v>9674</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="G40" s="0" t="n">
         <v>7763</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="H40" s="0" t="n">
         <v>9549</v>
       </c>
-      <c r="G40" s="0" t="n">
+      <c r="I40" s="0" t="n">
         <v>10963</v>
       </c>
-      <c r="H40" s="0" t="n">
+      <c r="J40" s="0" t="n">
         <v>10791</v>
       </c>
-      <c r="I40" s="0" t="n">
+      <c r="K40" s="0" t="n">
         <v>12453</v>
       </c>
-      <c r="J40" s="0" t="n">
+      <c r="L40" s="0" t="n">
         <v>12935.6</v>
       </c>
-      <c r="K40" s="0" t="n">
+      <c r="M40" s="0" t="n">
         <v>17020</v>
       </c>
-      <c r="L40" s="0" t="n">
+      <c r="N40" s="0" t="n">
         <v>20079.4</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="0" t="n">
         <v>10475</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="F41" s="0" t="n">
         <v>7156</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="G41" s="0" t="n">
         <v>8299</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="H41" s="0" t="n">
         <v>11427</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="I41" s="0" t="n">
         <v>13843</v>
       </c>
-      <c r="H41" s="0" t="n">
+      <c r="J41" s="0" t="n">
         <v>12720</v>
       </c>
-      <c r="I41" s="0" t="n">
+      <c r="K41" s="0" t="n">
         <v>15411</v>
       </c>
-      <c r="J41" s="0" t="n">
+      <c r="L41" s="0" t="n">
         <v>18098.4</v>
       </c>
-      <c r="K41" s="0" t="n">
+      <c r="M41" s="0" t="n">
         <v>24121.2</v>
       </c>
-      <c r="L41" s="0" t="n">
+      <c r="N41" s="0" t="n">
         <v>22251.5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="0" t="n">
         <v>12068</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="F42" s="0" t="n">
         <v>8965</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="G42" s="0" t="n">
         <v>10637</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="H42" s="0" t="n">
         <v>12751</v>
       </c>
-      <c r="G42" s="0" t="n">
+      <c r="I42" s="0" t="n">
         <v>14117</v>
       </c>
-      <c r="H42" s="0" t="n">
+      <c r="J42" s="0" t="n">
         <v>13364</v>
       </c>
-      <c r="I42" s="0" t="n">
+      <c r="K42" s="0" t="n">
         <v>15779</v>
       </c>
-      <c r="J42" s="0" t="n">
+      <c r="L42" s="0" t="n">
         <v>17474</v>
       </c>
-      <c r="K42" s="0" t="n">
+      <c r="M42" s="0" t="n">
         <v>27489.5</v>
       </c>
-      <c r="L42" s="0" t="n">
+      <c r="N42" s="0" t="n">
         <v>19235.1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="0" t="n">
         <v>11185</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="F43" s="0" t="n">
         <v>8318</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="G43" s="0" t="n">
         <v>10887</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="H43" s="0" t="n">
         <v>10951</v>
       </c>
-      <c r="G43" s="0" t="n">
+      <c r="I43" s="0" t="n">
         <v>13488</v>
       </c>
-      <c r="H43" s="0" t="n">
+      <c r="J43" s="0" t="n">
         <v>15603</v>
       </c>
-      <c r="I43" s="0" t="n">
+      <c r="K43" s="0" t="n">
         <v>21821</v>
       </c>
-      <c r="J43" s="0" t="n">
+      <c r="L43" s="0" t="n">
         <v>18129.7</v>
       </c>
-      <c r="K43" s="0" t="n">
+      <c r="M43" s="0" t="n">
         <v>21663.7</v>
       </c>
-      <c r="L43" s="0" t="n">
+      <c r="N43" s="0" t="n">
         <v>22100.5</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="0" t="n">
         <v>8051</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="F44" s="0" t="n">
         <v>8435</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="G44" s="0" t="n">
         <v>9548</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="H44" s="0" t="n">
         <v>9572</v>
       </c>
-      <c r="G44" s="0" t="n">
+      <c r="I44" s="0" t="n">
         <v>11323</v>
       </c>
-      <c r="H44" s="0" t="n">
+      <c r="J44" s="0" t="n">
         <v>12914</v>
       </c>
-      <c r="I44" s="0" t="n">
+      <c r="K44" s="0" t="n">
         <v>17096</v>
       </c>
-      <c r="J44" s="0" t="n">
+      <c r="L44" s="0" t="n">
         <v>15677.7</v>
       </c>
-      <c r="K44" s="0" t="n">
+      <c r="M44" s="0" t="n">
         <v>19918.3</v>
       </c>
-      <c r="L44" s="0" t="n">
+      <c r="N44" s="0" t="n">
         <v>21336.5</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" s="0" t="n">
         <v>9418</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="F45" s="0" t="n">
         <v>8415</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="G45" s="0" t="n">
         <v>9494</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="H45" s="0" t="n">
         <v>11398</v>
       </c>
-      <c r="G45" s="0" t="n">
+      <c r="I45" s="0" t="n">
         <v>13320</v>
       </c>
-      <c r="H45" s="0" t="n">
+      <c r="J45" s="0" t="n">
         <v>14177</v>
       </c>
-      <c r="I45" s="0" t="n">
+      <c r="K45" s="0" t="n">
         <v>19158</v>
       </c>
-      <c r="J45" s="0" t="n">
+      <c r="L45" s="0" t="n">
         <v>19399.4</v>
       </c>
-      <c r="K45" s="0" t="n">
+      <c r="M45" s="0" t="n">
         <v>22479.2</v>
       </c>
-      <c r="L45" s="0" t="n">
+      <c r="N45" s="0" t="n">
         <v>26376.3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="0" t="n">
         <v>8365</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="F46" s="0" t="n">
         <v>8137</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="G46" s="0" t="n">
         <v>7861</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="H46" s="0" t="n">
         <v>8632</v>
       </c>
-      <c r="G46" s="0" t="n">
+      <c r="I46" s="0" t="n">
         <v>9698</v>
       </c>
-      <c r="H46" s="0" t="n">
+      <c r="J46" s="0" t="n">
         <v>10263</v>
       </c>
-      <c r="I46" s="0" t="n">
+      <c r="K46" s="0" t="n">
         <v>13734</v>
       </c>
-      <c r="J46" s="0" t="n">
+      <c r="L46" s="0" t="n">
         <v>17315.8</v>
       </c>
-      <c r="K46" s="0" t="n">
+      <c r="M46" s="0" t="n">
         <v>15624.4</v>
       </c>
-      <c r="L46" s="0" t="n">
+      <c r="N46" s="0" t="n">
         <v>18479.6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="0" t="n">
         <v>6398</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="F47" s="0" t="n">
         <v>6226</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="G47" s="0" t="n">
         <v>6675</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="H47" s="0" t="n">
         <v>8095</v>
       </c>
-      <c r="G47" s="0" t="n">
+      <c r="I47" s="0" t="n">
         <v>11850</v>
       </c>
-      <c r="H47" s="0" t="n">
+      <c r="J47" s="0" t="n">
         <v>12257</v>
       </c>
-      <c r="I47" s="0" t="n">
+      <c r="K47" s="0" t="n">
         <v>11310</v>
       </c>
-      <c r="J47" s="0" t="n">
+      <c r="L47" s="0" t="n">
         <v>18287.4</v>
       </c>
-      <c r="K47" s="0" t="n">
+      <c r="M47" s="0" t="n">
         <v>21351</v>
       </c>
-      <c r="L47" s="0" t="n">
+      <c r="N47" s="0" t="n">
         <v>20314.6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="0" t="n">
         <v>7669</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="F48" s="0" t="n">
         <v>7593</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="G48" s="0" t="n">
         <v>7564</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="H48" s="0" t="n">
         <v>8745</v>
       </c>
-      <c r="G48" s="0" t="n">
+      <c r="I48" s="0" t="n">
         <v>9406</v>
       </c>
-      <c r="H48" s="0" t="n">
+      <c r="J48" s="0" t="n">
         <v>10782</v>
       </c>
-      <c r="I48" s="0" t="n">
+      <c r="K48" s="0" t="n">
         <v>10666</v>
       </c>
-      <c r="J48" s="0" t="n">
+      <c r="L48" s="0" t="n">
         <v>13943.9</v>
       </c>
-      <c r="K48" s="0" t="n">
+      <c r="M48" s="0" t="n">
         <v>16207.2</v>
       </c>
-      <c r="L48" s="0" t="n">
+      <c r="N48" s="0" t="n">
         <v>18792.5</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="0" t="n">
         <v>10267</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="F49" s="0" t="n">
         <v>9874</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="G49" s="0" t="n">
         <v>12258</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="H49" s="0" t="n">
         <v>11697</v>
       </c>
-      <c r="G49" s="0" t="n">
+      <c r="I49" s="0" t="n">
         <v>12035</v>
       </c>
-      <c r="H49" s="0" t="n">
+      <c r="J49" s="0" t="n">
         <v>14534</v>
       </c>
-      <c r="I49" s="0" t="n">
+      <c r="K49" s="0" t="n">
         <v>16747</v>
       </c>
-      <c r="J49" s="0" t="n">
+      <c r="L49" s="0" t="n">
         <v>21659.6</v>
       </c>
-      <c r="K49" s="0" t="n">
+      <c r="M49" s="0" t="n">
         <v>22343.7</v>
       </c>
-      <c r="L49" s="0" t="n">
+      <c r="N49" s="0" t="n">
         <v>20452.5</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="D50" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="E50" s="0" t="n">
         <v>7478</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="F50" s="0" t="n">
         <v>4826</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="G50" s="0" t="n">
         <v>6045</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="H50" s="0" t="n">
         <v>9410</v>
       </c>
-      <c r="G50" s="0" t="n">
+      <c r="I50" s="0" t="n">
         <v>9969</v>
       </c>
-      <c r="H50" s="0" t="n">
+      <c r="J50" s="0" t="n">
         <v>10040</v>
       </c>
-      <c r="I50" s="0" t="n">
+      <c r="K50" s="0" t="n">
         <v>11813</v>
       </c>
-      <c r="J50" s="0" t="n">
+      <c r="L50" s="0" t="n">
         <v>16766.8</v>
       </c>
-      <c r="K50" s="0" t="n">
+      <c r="M50" s="0" t="n">
         <v>14418.4</v>
       </c>
-      <c r="L50" s="0" t="n">
+      <c r="N50" s="0" t="n">
         <v>19517.9</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E51" s="0" t="n">
         <v>6220</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="F51" s="0" t="n">
         <v>7683</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="G51" s="0" t="n">
         <v>8364</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="H51" s="0" t="n">
         <v>9161</v>
       </c>
-      <c r="G51" s="0" t="n">
+      <c r="I51" s="0" t="n">
         <v>11551</v>
       </c>
-      <c r="H51" s="0" t="n">
+      <c r="J51" s="0" t="n">
         <v>11253</v>
       </c>
-      <c r="I51" s="0" t="n">
+      <c r="K51" s="0" t="n">
         <v>12380</v>
       </c>
-      <c r="J51" s="0" t="n">
+      <c r="L51" s="0" t="n">
         <v>15794.3</v>
       </c>
-      <c r="K51" s="0" t="n">
+      <c r="M51" s="0" t="n">
         <v>18641</v>
       </c>
-      <c r="L51" s="0" t="n">
+      <c r="N51" s="0" t="n">
         <v>23829.5</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C52" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" s="0" t="n">
         <v>8139</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="F52" s="0" t="n">
         <v>7711</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="G52" s="0" t="n">
         <v>9307</v>
       </c>
-      <c r="F52" s="0" t="n">
+      <c r="H52" s="0" t="n">
         <v>11423</v>
       </c>
-      <c r="G52" s="0" t="n">
+      <c r="I52" s="0" t="n">
         <v>13134</v>
       </c>
-      <c r="H52" s="0" t="n">
+      <c r="J52" s="0" t="n">
         <v>11889</v>
       </c>
-      <c r="I52" s="0" t="n">
+      <c r="K52" s="0" t="n">
         <v>14763</v>
       </c>
-      <c r="J52" s="0" t="n">
+      <c r="L52" s="0" t="n">
         <v>15975.4</v>
       </c>
-      <c r="K52" s="0" t="n">
+      <c r="M52" s="0" t="n">
         <v>17272.8</v>
       </c>
-      <c r="L52" s="0" t="n">
+      <c r="N52" s="0" t="n">
         <v>21172.9</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K53" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="M53" s="0" t="n">
         <v>20207</v>
       </c>
-      <c r="L53" s="0" t="n">
+      <c r="N53" s="0" t="n">
         <v>23766.6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" s="0" t="n">
         <v>8386</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="F54" s="0" t="n">
         <v>5532</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="G54" s="0" t="n">
         <v>7326</v>
       </c>
-      <c r="F54" s="0" t="n">
+      <c r="H54" s="0" t="n">
         <v>8318</v>
       </c>
-      <c r="G54" s="0" t="n">
+      <c r="I54" s="0" t="n">
         <v>11030</v>
       </c>
-      <c r="H54" s="0" t="n">
+      <c r="J54" s="0" t="n">
         <v>11889</v>
       </c>
-      <c r="I54" s="0" t="n">
+      <c r="K54" s="0" t="n">
         <v>14012</v>
       </c>
-      <c r="J54" s="0" t="n">
+      <c r="L54" s="0" t="n">
         <v>17139.1</v>
       </c>
-      <c r="K54" s="0" t="n">
+      <c r="M54" s="0" t="n">
         <v>15390.4</v>
       </c>
-      <c r="L54" s="0" t="n">
+      <c r="N54" s="0" t="n">
         <v>22552.5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" s="0" t="n">
         <v>11521</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="F55" s="0" t="n">
         <v>9757</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="G55" s="0" t="n">
         <v>11554</v>
       </c>
-      <c r="F55" s="0" t="n">
+      <c r="H55" s="0" t="n">
         <v>13088</v>
       </c>
-      <c r="G55" s="0" t="n">
+      <c r="I55" s="0" t="n">
         <v>11349</v>
       </c>
-      <c r="H55" s="0" t="n">
+      <c r="J55" s="0" t="n">
         <v>15065</v>
       </c>
-      <c r="I55" s="0" t="n">
+      <c r="K55" s="0" t="n">
         <v>19779</v>
       </c>
-      <c r="J55" s="0" t="n">
+      <c r="L55" s="0" t="n">
         <v>16030.4</v>
       </c>
-      <c r="K55" s="0" t="n">
+      <c r="M55" s="0" t="n">
         <v>18095</v>
       </c>
-      <c r="L55" s="0" t="n">
+      <c r="N55" s="0" t="n">
         <v>21336.7</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="0" t="n">
         <v>7744</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="F56" s="0" t="n">
         <v>6841</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="G56" s="0" t="n">
         <v>9885</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="H56" s="0" t="n">
         <v>10789</v>
       </c>
-      <c r="G56" s="0" t="n">
+      <c r="I56" s="0" t="n">
         <v>14097</v>
       </c>
-      <c r="H56" s="0" t="n">
+      <c r="J56" s="0" t="n">
         <v>17273</v>
       </c>
-      <c r="I56" s="0" t="n">
+      <c r="K56" s="0" t="n">
         <v>16684</v>
       </c>
-      <c r="J56" s="0" t="n">
+      <c r="L56" s="0" t="n">
         <v>22017.3</v>
       </c>
-      <c r="K56" s="0" t="n">
+      <c r="M56" s="0" t="n">
         <v>25965.9</v>
       </c>
-      <c r="L56" s="0" t="n">
+      <c r="N56" s="0" t="n">
         <v>22817.4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" s="0" t="n">
         <v>9905</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="F57" s="0" t="n">
         <v>7387</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="G57" s="0" t="n">
         <v>9289</v>
       </c>
-      <c r="F57" s="0" t="n">
+      <c r="H57" s="0" t="n">
         <v>10013</v>
       </c>
-      <c r="G57" s="0" t="n">
+      <c r="I57" s="0" t="n">
         <v>12083</v>
       </c>
-      <c r="H57" s="0" t="n">
+      <c r="J57" s="0" t="n">
         <v>13765</v>
       </c>
-      <c r="I57" s="0" t="n">
+      <c r="K57" s="0" t="n">
         <v>13411</v>
       </c>
-      <c r="J57" s="0" t="n">
+      <c r="L57" s="0" t="n">
         <v>17957.7</v>
       </c>
-      <c r="K57" s="0" t="n">
+      <c r="M57" s="0" t="n">
         <v>16337.6</v>
       </c>
-      <c r="L57" s="0" t="n">
+      <c r="N57" s="0" t="n">
         <v>20990.4</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58" s="0" t="n">
         <v>12548</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="F58" s="0" t="n">
         <v>7123</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="G58" s="0" t="n">
         <v>11001</v>
       </c>
-      <c r="F58" s="0" t="n">
+      <c r="H58" s="0" t="n">
         <v>11466</v>
       </c>
-      <c r="G58" s="0" t="n">
+      <c r="I58" s="0" t="n">
         <v>12877</v>
       </c>
-      <c r="H58" s="0" t="n">
+      <c r="J58" s="0" t="n">
         <v>12885</v>
       </c>
-      <c r="I58" s="0" t="n">
+      <c r="K58" s="0" t="n">
         <v>14467</v>
       </c>
-      <c r="J58" s="0" t="n">
+      <c r="L58" s="0" t="n">
         <v>16978.8</v>
       </c>
-      <c r="K58" s="0" t="n">
+      <c r="M58" s="0" t="n">
         <v>18057.9</v>
       </c>
-      <c r="L58" s="0" t="n">
+      <c r="N58" s="0" t="n">
         <v>21206.5</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" s="0" t="n">
         <v>8444</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="F59" s="0" t="n">
         <v>8746</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="G59" s="0" t="n">
         <v>9642</v>
       </c>
-      <c r="F59" s="0" t="n">
+      <c r="H59" s="0" t="n">
         <v>10178</v>
       </c>
-      <c r="G59" s="0" t="n">
+      <c r="I59" s="0" t="n">
         <v>13646</v>
       </c>
-      <c r="H59" s="0" t="n">
+      <c r="J59" s="0" t="n">
         <v>15812</v>
       </c>
-      <c r="I59" s="0" t="n">
+      <c r="K59" s="0" t="n">
         <v>19845</v>
       </c>
-      <c r="J59" s="0" t="n">
+      <c r="L59" s="0" t="n">
         <v>25461.2</v>
       </c>
-      <c r="K59" s="0" t="n">
+      <c r="M59" s="0" t="n">
         <v>21643.8</v>
       </c>
-      <c r="L59" s="0" t="n">
+      <c r="N59" s="0" t="n">
         <v>18540.3</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C60" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E60" s="0" t="n">
         <v>5987</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="F60" s="0" t="n">
         <v>7207</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="G60" s="0" t="n">
         <v>9442</v>
       </c>
-      <c r="F60" s="0" t="n">
+      <c r="H60" s="0" t="n">
         <v>9817</v>
       </c>
-      <c r="G60" s="0" t="n">
+      <c r="I60" s="0" t="n">
         <v>10849</v>
       </c>
-      <c r="H60" s="0" t="n">
+      <c r="J60" s="0" t="n">
         <v>11779</v>
       </c>
-      <c r="I60" s="0" t="n">
+      <c r="K60" s="0" t="n">
         <v>14932</v>
       </c>
-      <c r="J60" s="0" t="n">
+      <c r="L60" s="0" t="n">
         <v>20167</v>
       </c>
-      <c r="K60" s="0" t="n">
+      <c r="M60" s="0" t="n">
         <v>20505.2</v>
       </c>
-      <c r="L60" s="0" t="n">
+      <c r="N60" s="0" t="n">
         <v>19990.4</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C61" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E61" s="0" t="n">
         <v>6908</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="F61" s="0" t="n">
         <v>6469</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="G61" s="0" t="n">
         <v>8736</v>
       </c>
-      <c r="F61" s="0" t="n">
+      <c r="H61" s="0" t="n">
         <v>8908</v>
       </c>
-      <c r="G61" s="0" t="n">
+      <c r="I61" s="0" t="n">
         <v>12470</v>
       </c>
-      <c r="H61" s="0" t="n">
+      <c r="J61" s="0" t="n">
         <v>12507</v>
       </c>
-      <c r="I61" s="0" t="n">
+      <c r="K61" s="0" t="n">
         <v>11748</v>
       </c>
-      <c r="J61" s="0" t="n">
+      <c r="L61" s="0" t="n">
         <v>17292.9</v>
       </c>
-      <c r="K61" s="0" t="n">
+      <c r="M61" s="0" t="n">
         <v>13921.1</v>
       </c>
-      <c r="L61" s="0" t="n">
+      <c r="N61" s="0" t="n">
         <v>15451.6</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" s="0" t="n">
         <v>7660</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="F62" s="0" t="n">
         <v>7751</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="G62" s="0" t="n">
         <v>10227</v>
       </c>
-      <c r="F62" s="0" t="n">
+      <c r="H62" s="0" t="n">
         <v>8971</v>
       </c>
-      <c r="G62" s="0" t="n">
+      <c r="I62" s="0" t="n">
         <v>11295</v>
       </c>
-      <c r="H62" s="0" t="n">
+      <c r="J62" s="0" t="n">
         <v>11957</v>
       </c>
-      <c r="I62" s="0" t="n">
+      <c r="K62" s="0" t="n">
         <v>16679</v>
       </c>
-      <c r="J62" s="0" t="n">
+      <c r="L62" s="0" t="n">
         <v>15326.2</v>
       </c>
-      <c r="K62" s="0" t="n">
+      <c r="M62" s="0" t="n">
         <v>16854.2</v>
       </c>
-      <c r="L62" s="0" t="n">
+      <c r="N62" s="0" t="n">
         <v>19280.9</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C63" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" s="0" t="n">
         <v>7909</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="F63" s="0" t="n">
         <v>5343</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="G63" s="0" t="n">
         <v>7613</v>
       </c>
-      <c r="F63" s="0" t="n">
+      <c r="H63" s="0" t="n">
         <v>8168</v>
       </c>
-      <c r="G63" s="0" t="n">
+      <c r="I63" s="0" t="n">
         <v>9927</v>
       </c>
-      <c r="H63" s="0" t="n">
+      <c r="J63" s="0" t="n">
         <v>10009</v>
       </c>
-      <c r="I63" s="0" t="n">
+      <c r="K63" s="0" t="n">
         <v>12859</v>
       </c>
-      <c r="J63" s="0" t="n">
+      <c r="L63" s="0" t="n">
         <v>14053.4</v>
       </c>
-      <c r="K63" s="0" t="n">
+      <c r="M63" s="0" t="n">
         <v>14310.4</v>
       </c>
-      <c r="L63" s="0" t="n">
+      <c r="N63" s="0" t="n">
         <v>15804.4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C64" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E64" s="0" t="n">
         <v>9890</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="F64" s="0" t="n">
         <v>9485</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="G64" s="0" t="n">
         <v>9236</v>
       </c>
-      <c r="F64" s="0" t="n">
+      <c r="H64" s="0" t="n">
         <v>9284</v>
       </c>
-      <c r="G64" s="0" t="n">
+      <c r="I64" s="0" t="n">
         <v>13497</v>
       </c>
-      <c r="H64" s="0" t="n">
+      <c r="J64" s="0" t="n">
         <v>13406</v>
       </c>
-      <c r="I64" s="0" t="n">
+      <c r="K64" s="0" t="n">
         <v>17370</v>
       </c>
-      <c r="J64" s="0" t="n">
+      <c r="L64" s="0" t="n">
         <v>19048.4</v>
       </c>
-      <c r="K64" s="0" t="n">
+      <c r="M64" s="0" t="n">
         <v>16494.4</v>
       </c>
-      <c r="L64" s="0" t="n">
+      <c r="N64" s="0" t="n">
         <v>22869.7</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" s="0" t="n">
         <v>11196</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="F65" s="0" t="n">
         <v>10789</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="G65" s="0" t="n">
         <v>12317</v>
       </c>
-      <c r="F65" s="0" t="n">
+      <c r="H65" s="0" t="n">
         <v>14079</v>
       </c>
-      <c r="G65" s="0" t="n">
+      <c r="I65" s="0" t="n">
         <v>17377</v>
       </c>
-      <c r="H65" s="0" t="n">
+      <c r="J65" s="0" t="n">
         <v>18087</v>
       </c>
-      <c r="I65" s="0" t="n">
+      <c r="K65" s="0" t="n">
         <v>23296</v>
       </c>
-      <c r="J65" s="0" t="n">
+      <c r="L65" s="0" t="n">
         <v>29970.4</v>
       </c>
-      <c r="K65" s="0" t="n">
+      <c r="M65" s="0" t="n">
         <v>27478.9</v>
       </c>
-      <c r="L65" s="0" t="n">
+      <c r="N65" s="0" t="n">
         <v>25124</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C66" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" s="0" t="n">
         <v>11986</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="F66" s="0" t="n">
         <v>9928</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="G66" s="0" t="n">
         <v>13318</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="H66" s="0" t="n">
         <v>16877</v>
       </c>
-      <c r="G66" s="0" t="n">
+      <c r="I66" s="0" t="n">
         <v>18446</v>
       </c>
-      <c r="H66" s="0" t="n">
+      <c r="J66" s="0" t="n">
         <v>18852</v>
       </c>
-      <c r="I66" s="0" t="n">
+      <c r="K66" s="0" t="n">
         <v>23647</v>
       </c>
-      <c r="J66" s="0" t="n">
+      <c r="L66" s="0" t="n">
         <v>33350.3</v>
       </c>
-      <c r="K66" s="0" t="n">
+      <c r="M66" s="0" t="n">
         <v>27275.8</v>
       </c>
-      <c r="L66" s="0" t="n">
+      <c r="N66" s="0" t="n">
         <v>31011.5</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E67" s="0" t="n">
         <v>7650</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="F67" s="0" t="n">
         <v>10217</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="G67" s="0" t="n">
         <v>12428</v>
       </c>
-      <c r="F67" s="0" t="n">
+      <c r="H67" s="0" t="n">
         <v>16965</v>
       </c>
-      <c r="G67" s="0" t="n">
+      <c r="I67" s="0" t="n">
         <v>29617</v>
       </c>
-      <c r="H67" s="0" t="n">
+      <c r="J67" s="0" t="n">
         <v>22211</v>
       </c>
-      <c r="I67" s="0" t="n">
+      <c r="K67" s="0" t="n">
         <v>22356</v>
       </c>
-      <c r="J67" s="0" t="n">
+      <c r="L67" s="0" t="n">
         <v>24470.4</v>
       </c>
-      <c r="K67" s="0" t="n">
+      <c r="M67" s="0" t="n">
         <v>26167.7</v>
       </c>
-      <c r="L67" s="0" t="n">
+      <c r="N67" s="0" t="n">
         <v>28842.3</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C68" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E68" s="0" t="n">
         <v>19313</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="F68" s="0" t="n">
         <v>20702</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="G68" s="0" t="n">
         <v>26363</v>
       </c>
-      <c r="F68" s="0" t="n">
+      <c r="H68" s="0" t="n">
         <v>25082</v>
       </c>
-      <c r="G68" s="0" t="n">
+      <c r="I68" s="0" t="n">
         <v>25630</v>
       </c>
-      <c r="H68" s="0" t="n">
+      <c r="J68" s="0" t="n">
         <v>25084</v>
       </c>
-      <c r="I68" s="0" t="n">
+      <c r="K68" s="0" t="n">
         <v>28515</v>
       </c>
-      <c r="J68" s="0" t="n">
+      <c r="L68" s="0" t="n">
         <v>26048</v>
       </c>
-      <c r="K68" s="0" t="n">
+      <c r="M68" s="0" t="n">
         <v>31857.4</v>
       </c>
-      <c r="L68" s="0" t="n">
+      <c r="N68" s="0" t="n">
         <v>31499.7</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C69" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E69" s="0" t="n">
         <v>11967</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="F69" s="0" t="n">
         <v>10800</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="G69" s="0" t="n">
         <v>14056</v>
       </c>
-      <c r="F69" s="0" t="n">
+      <c r="H69" s="0" t="n">
         <v>16150</v>
       </c>
-      <c r="G69" s="0" t="n">
+      <c r="I69" s="0" t="n">
         <v>21747</v>
       </c>
-      <c r="H69" s="0" t="n">
+      <c r="J69" s="0" t="n">
         <v>26207</v>
       </c>
-      <c r="I69" s="0" t="n">
+      <c r="K69" s="0" t="n">
         <v>30604</v>
       </c>
-      <c r="J69" s="0" t="n">
+      <c r="L69" s="0" t="n">
         <v>34416.6</v>
       </c>
-      <c r="K69" s="0" t="n">
+      <c r="M69" s="0" t="n">
         <v>36864.5</v>
       </c>
-      <c r="L69" s="0" t="n">
+      <c r="N69" s="0" t="n">
         <v>36465.6</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C70" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E70" s="0" t="n">
         <v>9033</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="F70" s="0" t="n">
         <v>9410</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="G70" s="0" t="n">
         <v>10765</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="H70" s="0" t="n">
         <v>14328</v>
       </c>
-      <c r="G70" s="0" t="n">
+      <c r="I70" s="0" t="n">
         <v>18679</v>
       </c>
-      <c r="H70" s="0" t="n">
+      <c r="J70" s="0" t="n">
         <v>21620</v>
       </c>
-      <c r="I70" s="0" t="n">
+      <c r="K70" s="0" t="n">
         <v>19274</v>
       </c>
-      <c r="J70" s="0" t="n">
+      <c r="L70" s="0" t="n">
         <v>26048.7</v>
       </c>
-      <c r="K70" s="0" t="n">
+      <c r="M70" s="0" t="n">
         <v>32291.8</v>
       </c>
-      <c r="L70" s="0" t="n">
+      <c r="N70" s="0" t="n">
         <v>22034.7</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="D71" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="E71" s="0" t="n">
         <v>10232</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="F71" s="0" t="n">
         <v>10454</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="G71" s="0" t="n">
         <v>10922</v>
       </c>
-      <c r="F71" s="0" t="n">
+      <c r="H71" s="0" t="n">
         <v>11482</v>
       </c>
-      <c r="G71" s="0" t="n">
+      <c r="I71" s="0" t="n">
         <v>17232</v>
       </c>
-      <c r="H71" s="0" t="n">
+      <c r="J71" s="0" t="n">
         <v>19003</v>
       </c>
-      <c r="I71" s="0" t="n">
+      <c r="K71" s="0" t="n">
         <v>25179</v>
       </c>
-      <c r="J71" s="0" t="n">
+      <c r="L71" s="0" t="n">
         <v>28021.5</v>
       </c>
-      <c r="K71" s="0" t="n">
+      <c r="M71" s="0" t="n">
         <v>27540.2</v>
       </c>
-      <c r="L71" s="0" t="n">
+      <c r="N71" s="0" t="n">
         <v>29306.1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C72" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" s="0" t="n">
         <v>15057</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="F72" s="0" t="n">
         <v>13505</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="G72" s="0" t="n">
         <v>14192</v>
       </c>
-      <c r="F72" s="0" t="n">
+      <c r="H72" s="0" t="n">
         <v>15481</v>
       </c>
-      <c r="G72" s="0" t="n">
+      <c r="I72" s="0" t="n">
         <v>22093</v>
       </c>
-      <c r="H72" s="0" t="n">
+      <c r="J72" s="0" t="n">
         <v>22342</v>
       </c>
-      <c r="I72" s="0" t="n">
+      <c r="K72" s="0" t="n">
         <v>27356</v>
       </c>
-      <c r="J72" s="0" t="n">
+      <c r="L72" s="0" t="n">
         <v>26711.2</v>
       </c>
-      <c r="K72" s="0" t="n">
+      <c r="M72" s="0" t="n">
         <v>26824.1</v>
       </c>
-      <c r="L72" s="0" t="n">
+      <c r="N72" s="0" t="n">
         <v>27659.9</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C73" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E73" s="0" t="n">
         <v>8924</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="F73" s="0" t="n">
         <v>9711</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="G73" s="0" t="n">
         <v>12702</v>
       </c>
-      <c r="F73" s="0" t="n">
+      <c r="H73" s="0" t="n">
         <v>11826</v>
       </c>
-      <c r="G73" s="0" t="n">
+      <c r="I73" s="0" t="n">
         <v>14307</v>
       </c>
-      <c r="H73" s="0" t="n">
+      <c r="J73" s="0" t="n">
         <v>17328</v>
       </c>
-      <c r="I73" s="0" t="n">
+      <c r="K73" s="0" t="n">
         <v>20695</v>
       </c>
-      <c r="J73" s="0" t="n">
+      <c r="L73" s="0" t="n">
         <v>21046.8</v>
       </c>
-      <c r="K73" s="0" t="n">
+      <c r="M73" s="0" t="n">
         <v>25399.6</v>
       </c>
-      <c r="L73" s="0" t="n">
+      <c r="N73" s="0" t="n">
         <v>23208.5</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C74" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E74" s="0" t="n">
         <v>12973</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="F74" s="0" t="n">
         <v>12782</v>
       </c>
-      <c r="E74" s="0" t="n">
+      <c r="G74" s="0" t="n">
         <v>14332</v>
       </c>
-      <c r="F74" s="0" t="n">
+      <c r="H74" s="0" t="n">
         <v>17038</v>
       </c>
-      <c r="G74" s="0" t="n">
+      <c r="I74" s="0" t="n">
         <v>20801</v>
       </c>
-      <c r="H74" s="0" t="n">
+      <c r="J74" s="0" t="n">
         <v>23650</v>
       </c>
-      <c r="I74" s="0" t="n">
+      <c r="K74" s="0" t="n">
         <v>21992</v>
       </c>
-      <c r="J74" s="0" t="n">
+      <c r="L74" s="0" t="n">
         <v>36245.2</v>
       </c>
-      <c r="K74" s="0" t="n">
+      <c r="M74" s="0" t="n">
         <v>33269.9</v>
       </c>
-      <c r="L74" s="0" t="n">
+      <c r="N74" s="0" t="n">
         <v>23309.1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C75" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E75" s="0" t="n">
         <v>12315</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="F75" s="0" t="n">
         <v>11550</v>
       </c>
-      <c r="E75" s="0" t="n">
+      <c r="G75" s="0" t="n">
         <v>10820</v>
       </c>
-      <c r="F75" s="0" t="n">
+      <c r="H75" s="0" t="n">
         <v>14985</v>
       </c>
-      <c r="G75" s="0" t="n">
+      <c r="I75" s="0" t="n">
         <v>18045</v>
       </c>
-      <c r="H75" s="0" t="n">
+      <c r="J75" s="0" t="n">
         <v>18670</v>
       </c>
-      <c r="I75" s="0" t="n">
+      <c r="K75" s="0" t="n">
         <v>19381</v>
       </c>
-      <c r="J75" s="0" t="n">
+      <c r="L75" s="0" t="n">
         <v>25201.9</v>
       </c>
-      <c r="K75" s="0" t="n">
+      <c r="M75" s="0" t="n">
         <v>26169.3</v>
       </c>
-      <c r="L75" s="0" t="n">
+      <c r="N75" s="0" t="n">
         <v>21478.3</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C76" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E76" s="0" t="n">
         <v>10737</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="F76" s="0" t="n">
         <v>9759</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="G76" s="0" t="n">
         <v>9702</v>
       </c>
-      <c r="F76" s="0" t="n">
+      <c r="H76" s="0" t="n">
         <v>11837</v>
       </c>
-      <c r="G76" s="0" t="n">
+      <c r="I76" s="0" t="n">
         <v>12547</v>
       </c>
-      <c r="H76" s="0" t="n">
+      <c r="J76" s="0" t="n">
         <v>11840</v>
       </c>
-      <c r="I76" s="0" t="n">
+      <c r="K76" s="0" t="n">
         <v>13511</v>
       </c>
-      <c r="J76" s="0" t="n">
+      <c r="L76" s="0" t="n">
         <v>16121.5</v>
       </c>
-      <c r="K76" s="0" t="n">
+      <c r="M76" s="0" t="n">
         <v>20199.1</v>
       </c>
-      <c r="L76" s="0" t="n">
+      <c r="N76" s="0" t="n">
         <v>17513</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C77" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E77" s="0" t="n">
         <v>7560</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="F77" s="0" t="n">
         <v>9932</v>
       </c>
-      <c r="E77" s="0" t="n">
+      <c r="G77" s="0" t="n">
         <v>10018</v>
       </c>
-      <c r="F77" s="0" t="n">
+      <c r="H77" s="0" t="n">
         <v>11886</v>
       </c>
-      <c r="G77" s="0" t="n">
+      <c r="I77" s="0" t="n">
         <v>14354</v>
       </c>
-      <c r="H77" s="0" t="n">
+      <c r="J77" s="0" t="n">
         <v>13698</v>
       </c>
-      <c r="I77" s="0" t="n">
+      <c r="K77" s="0" t="n">
         <v>19619</v>
       </c>
-      <c r="J77" s="0" t="n">
+      <c r="L77" s="0" t="n">
         <v>21858.8</v>
       </c>
-      <c r="K77" s="0" t="n">
+      <c r="M77" s="0" t="n">
         <v>22483.1</v>
       </c>
-      <c r="L77" s="0" t="n">
+      <c r="N77" s="0" t="n">
         <v>15583.8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C78" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E78" s="0" t="n">
         <v>6281</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="F78" s="0" t="n">
         <v>7802</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="G78" s="0" t="n">
         <v>7603</v>
       </c>
-      <c r="F78" s="0" t="n">
+      <c r="H78" s="0" t="n">
         <v>9240</v>
       </c>
-      <c r="G78" s="0" t="n">
+      <c r="I78" s="0" t="n">
         <v>11586</v>
       </c>
-      <c r="H78" s="0" t="n">
+      <c r="J78" s="0" t="n">
         <v>13148</v>
       </c>
-      <c r="I78" s="0" t="n">
+      <c r="K78" s="0" t="n">
         <v>11244</v>
       </c>
-      <c r="J78" s="0" t="n">
+      <c r="L78" s="0" t="n">
         <v>16834.4</v>
       </c>
-      <c r="K78" s="0" t="n">
+      <c r="M78" s="0" t="n">
         <v>16772.8</v>
       </c>
-      <c r="L78" s="0" t="n">
+      <c r="N78" s="0" t="n">
         <v>19889.6</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>